--- a/result/实验结果.xlsx
+++ b/result/实验结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rib\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rib\Desktop\Git\BFTChain\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB16761-C667-4E39-855B-0FB19D850639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC20552-7FC2-4FE2-938E-777B3CC935FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,11 @@
   </si>
   <si>
     <t>实验结果（单位：us）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段说明：vote - proposer发送vote到proposer发送proposal
+proposal - proposer发送proposal到proposer提交proposal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,13 +167,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,17 +472,17 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,16 +501,25 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>8241233</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5458124</v>
+      <c r="B3" s="2">
+        <v>10080111</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3542467</v>
       </c>
       <c r="D3" s="1">
         <v>2460993</v>
@@ -510,16 +530,23 @@
       <c r="F3" s="1">
         <v>16633040</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>100</v>
       </c>
-      <c r="B4" s="1">
-        <v>4403357</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6705030</v>
+      <c r="B4" s="2">
+        <v>3190616</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2398201</v>
       </c>
       <c r="D4" s="1">
         <v>792471</v>
@@ -530,16 +557,23 @@
       <c r="F4" s="1">
         <v>7572209</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
-      <c r="B5" s="1">
-        <v>1964487</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3608075</v>
+      <c r="B5" s="2">
+        <v>2790824</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2626586</v>
       </c>
       <c r="D5" s="1">
         <v>933695</v>
@@ -550,16 +584,23 @@
       <c r="F5" s="1">
         <v>3882996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10000</v>
       </c>
-      <c r="B6" s="1">
-        <v>1433561</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1486908</v>
+      <c r="B6" s="2">
+        <v>1373972</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1093960</v>
       </c>
       <c r="D6" s="1">
         <v>573451</v>
@@ -570,126 +611,129 @@
       <c r="F6" s="1">
         <v>2873844</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="15">
+    <mergeCell ref="G2:M6"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="D11:F11"/>
@@ -699,6 +743,11 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
